--- a/Arbeitsdokumente/Projektplan GANTT.xlsx
+++ b/Arbeitsdokumente/Projektplan GANTT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anelljutic/Documents/GitHub/PS_InfoEng/IT_Projekt_SS19/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anelljutic/Documents/GitHub/PS_InfoEng/IT_Projekt_SS19/Arbeitsdokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA48D799-A237-BD4F-B98F-DA8F7242477E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C3A433-8221-B240-A28B-D9A8B4579D72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25580" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18740" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
   <si>
     <t>Projektbeginn:</t>
   </si>
@@ -69,46 +69,10 @@
     <t>PHASE 2</t>
   </si>
   <si>
-    <t>Gruppen-Meeting &amp; Aufgabeneinteilung</t>
-  </si>
-  <si>
-    <t>Laufende Abstimmungen mit JKU &amp; reqPOOL</t>
-  </si>
-  <si>
     <t>PHASE 3</t>
   </si>
   <si>
     <t>PHASE 1</t>
-  </si>
-  <si>
-    <t>Abstimmung mit Projektpartner (Neue Vorgabe)</t>
-  </si>
-  <si>
-    <t>Vorbereitung &amp; Durchführung des Interviews am SE-Institut</t>
-  </si>
-  <si>
-    <t>Einarbeiten der neuen Vorgabe/Umstrukturierung</t>
-  </si>
-  <si>
-    <t>Gruppen-Meeting &amp; Erkenntnisse vorstellen</t>
-  </si>
-  <si>
-    <t>Durchführen Fragebogen bei reqPOOL Mitarbeiter</t>
-  </si>
-  <si>
-    <t>Durchführen Fragebogen bei Freunde/Familie</t>
-  </si>
-  <si>
-    <t>Einarbeiten des Feedbacks (von reqPOOL &amp; Freunde/Familie)</t>
-  </si>
-  <si>
-    <t>Seminarbeit kontinuierlich verschriftlichen</t>
-  </si>
-  <si>
-    <t>Abstimmung mit Projektpartner inkl. Finales Feedback</t>
-  </si>
-  <si>
-    <t>3.Meilenstein</t>
   </si>
   <si>
     <t>Auswertungsstrategie erstellen</t>
@@ -169,6 +133,30 @@
   </si>
   <si>
     <t>Vorbereitung des 2. Meilensteins</t>
+  </si>
+  <si>
+    <t>Potenzielle CRM-Systeme installieren (Demo Versionen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prüfung/Testphase mit Demodaten </t>
+  </si>
+  <si>
+    <t>Workshop-Vorbereitung</t>
+  </si>
+  <si>
+    <t>Workshop-Abstimmung der Anforderungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umsetzungsphase </t>
+  </si>
+  <si>
+    <t>Weiterentwicklung der Seminararbiet</t>
+  </si>
+  <si>
+    <t>Test- und Reviewphase mit Echtdaten</t>
+  </si>
+  <si>
+    <t>Abstimmung mit Stakeholder</t>
   </si>
 </sst>
 </file>
@@ -1140,11 +1128,11 @@
   </sheetPr>
   <dimension ref="A1:EG71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="AG20" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="CD30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1160,7 +1148,7 @@
   <sheetData>
     <row r="1" spans="1:137" ht="19">
       <c r="A1" s="19" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -1694,7 +1682,7 @@
     </row>
     <row r="6" spans="1:137" ht="21">
       <c r="A6" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="17">
         <v>43530</v>
@@ -2854,7 +2842,7 @@
     </row>
     <row r="14" spans="1:137" ht="21">
       <c r="A14" s="18" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B14" s="17">
         <v>43544</v>
@@ -3289,7 +3277,7 @@
     </row>
     <row r="17" spans="1:137" ht="21">
       <c r="A17" s="18" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B17" s="17">
         <v>43557</v>
@@ -3434,7 +3422,7 @@
     </row>
     <row r="18" spans="1:137" ht="21">
       <c r="A18" s="16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B18" s="17">
         <v>43558</v>
@@ -4010,7 +3998,7 @@
     </row>
     <row r="22" spans="1:137" ht="21">
       <c r="A22" s="18" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B22" s="17">
         <v>43565</v>
@@ -4155,7 +4143,7 @@
     </row>
     <row r="23" spans="1:137" ht="21">
       <c r="A23" s="18" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B23" s="17">
         <v>43563</v>
@@ -4300,7 +4288,7 @@
     </row>
     <row r="24" spans="1:137" ht="21">
       <c r="A24" s="18" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B24" s="17">
         <v>43578</v>
@@ -4445,7 +4433,7 @@
     </row>
     <row r="25" spans="1:137" ht="21">
       <c r="A25" s="18" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B25" s="17">
         <v>43585</v>
@@ -4735,7 +4723,7 @@
     </row>
     <row r="27" spans="1:137" ht="21">
       <c r="A27" s="18" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B27" s="17">
         <v>43587</v>
@@ -4880,7 +4868,7 @@
     </row>
     <row r="28" spans="1:137" ht="21">
       <c r="A28" s="18" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B28" s="17">
         <v>43588</v>
@@ -5170,7 +5158,7 @@
     </row>
     <row r="30" spans="1:137" ht="21">
       <c r="A30" s="16" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B30" s="17">
         <v>43593</v>
@@ -5315,13 +5303,13 @@
     </row>
     <row r="31" spans="1:137" ht="22" thickBot="1">
       <c r="A31" s="23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B31" s="24">
-        <v>43425</v>
+        <v>43593</v>
       </c>
       <c r="C31" s="25">
-        <v>43481</v>
+        <v>43635</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="12"/>
@@ -5460,13 +5448,13 @@
     </row>
     <row r="32" spans="1:137" ht="21">
       <c r="A32" s="18" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B32" s="17">
-        <v>43431</v>
+        <v>43595</v>
       </c>
       <c r="C32" s="17">
-        <v>43431</v>
+        <v>43595</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -5605,13 +5593,13 @@
     </row>
     <row r="33" spans="1:137" ht="21">
       <c r="A33" s="18" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B33" s="27">
-        <v>43426</v>
+        <v>43596</v>
       </c>
       <c r="C33" s="27">
-        <v>43454</v>
+        <v>43608</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -5750,13 +5738,13 @@
     </row>
     <row r="34" spans="1:137" ht="21">
       <c r="A34" s="18" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B34" s="17">
-        <v>43438</v>
+        <v>43605</v>
       </c>
       <c r="C34" s="17">
-        <v>43438</v>
+        <v>43608</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -5895,13 +5883,13 @@
     </row>
     <row r="35" spans="1:137" ht="21">
       <c r="A35" s="18" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B35" s="17">
-        <v>43438</v>
+        <v>43606</v>
       </c>
       <c r="C35" s="17">
-        <v>43438</v>
+        <v>43606</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -6040,13 +6028,13 @@
     </row>
     <row r="36" spans="1:137" ht="21">
       <c r="A36" s="18" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B36" s="17">
-        <v>43439</v>
+        <v>43608</v>
       </c>
       <c r="C36" s="17">
-        <v>43447</v>
+        <v>43608</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -6185,13 +6173,13 @@
     </row>
     <row r="37" spans="1:137" ht="21">
       <c r="A37" s="18" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B37" s="17">
-        <v>43439</v>
+        <v>43609</v>
       </c>
       <c r="C37" s="17">
-        <v>43448</v>
+        <v>43626</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -6330,13 +6318,13 @@
     </row>
     <row r="38" spans="1:137" ht="21">
       <c r="A38" s="18" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B38" s="17">
-        <v>43439</v>
+        <v>43593</v>
       </c>
       <c r="C38" s="17">
-        <v>43439</v>
+        <v>43635</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -6475,13 +6463,13 @@
     </row>
     <row r="39" spans="1:137" ht="21">
       <c r="A39" s="18" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B39" s="17">
-        <v>43445</v>
+        <v>43609</v>
       </c>
       <c r="C39" s="17">
-        <v>43445</v>
+        <v>43635</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -6620,13 +6608,13 @@
     </row>
     <row r="40" spans="1:137" ht="21">
       <c r="A40" s="18" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B40" s="17">
-        <v>43446</v>
+        <v>43609</v>
       </c>
       <c r="C40" s="17">
-        <v>43446</v>
+        <v>43635</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -6764,15 +6752,9 @@
       <c r="EG40" s="9"/>
     </row>
     <row r="41" spans="1:137" ht="21">
-      <c r="A41" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="17">
-        <v>43447</v>
-      </c>
-      <c r="C41" s="17">
-        <v>43453</v>
-      </c>
+      <c r="A41" s="18"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
@@ -6906,15 +6888,9 @@
       <c r="EG41" s="9"/>
     </row>
     <row r="42" spans="1:137" ht="21">
-      <c r="A42" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="17">
-        <v>43453</v>
-      </c>
-      <c r="C42" s="17">
-        <v>43465</v>
-      </c>
+      <c r="A42" s="18"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
@@ -7051,15 +7027,9 @@
       <c r="EG42" s="9"/>
     </row>
     <row r="43" spans="1:137" ht="21">
-      <c r="A43" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="17">
-        <v>43454</v>
-      </c>
-      <c r="C43" s="17">
-        <v>43472</v>
-      </c>
+      <c r="A43" s="18"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
@@ -7196,15 +7166,9 @@
       <c r="EG43" s="9"/>
     </row>
     <row r="44" spans="1:137" ht="21">
-      <c r="A44" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="17">
-        <v>43429</v>
-      </c>
-      <c r="C44" s="17">
-        <v>43466</v>
-      </c>
+      <c r="A44" s="18"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
@@ -7341,15 +7305,9 @@
       <c r="EG44" s="9"/>
     </row>
     <row r="45" spans="1:137" ht="21">
-      <c r="A45" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="17">
-        <v>43472</v>
-      </c>
-      <c r="C45" s="17">
-        <v>43478</v>
-      </c>
+      <c r="A45" s="18"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -7486,15 +7444,9 @@
       <c r="EG45" s="9"/>
     </row>
     <row r="46" spans="1:137" ht="21">
-      <c r="A46" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="17">
-        <v>43473</v>
-      </c>
-      <c r="C46" s="17">
-        <v>43473</v>
-      </c>
+      <c r="A46" s="18"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
@@ -7631,15 +7583,9 @@
       <c r="EG46" s="9"/>
     </row>
     <row r="47" spans="1:137" ht="21">
-      <c r="A47" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="17">
-        <v>43480</v>
-      </c>
-      <c r="C47" s="17">
-        <v>43480</v>
-      </c>
+      <c r="A47" s="18"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
@@ -7776,15 +7722,9 @@
       <c r="EG47" s="9"/>
     </row>
     <row r="48" spans="1:137" ht="21">
-      <c r="A48" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="17">
-        <v>43476</v>
-      </c>
-      <c r="C48" s="17">
-        <v>43476</v>
-      </c>
+      <c r="A48" s="18"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -7921,15 +7861,9 @@
       <c r="EG48" s="9"/>
     </row>
     <row r="49" spans="1:137" ht="21">
-      <c r="A49" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" s="17">
-        <v>43481</v>
-      </c>
-      <c r="C49" s="17">
-        <v>43481</v>
-      </c>
+      <c r="A49" s="18"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -8067,7 +8001,7 @@
     </row>
     <row r="50" spans="1:137" ht="22" thickBot="1">
       <c r="A50" s="23" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B50" s="24">
         <v>43482</v>
@@ -8212,7 +8146,7 @@
     </row>
     <row r="51" spans="1:137" ht="21">
       <c r="A51" s="18" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B51" s="17">
         <v>43481</v>
@@ -8357,7 +8291,7 @@
     </row>
     <row r="52" spans="1:137" ht="44">
       <c r="A52" s="28" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B52" s="17">
         <v>43482</v>
@@ -8502,7 +8436,7 @@
     </row>
     <row r="53" spans="1:137" ht="21">
       <c r="A53" s="18" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B53" s="17">
         <v>43490</v>
@@ -8647,7 +8581,7 @@
     </row>
     <row r="54" spans="1:137" ht="21">
       <c r="A54" s="18" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B54" s="17">
         <v>43486</v>
@@ -8792,7 +8726,7 @@
     </row>
     <row r="55" spans="1:137" ht="21">
       <c r="A55" s="18" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B55" s="17">
         <v>43500</v>
@@ -8937,7 +8871,7 @@
     </row>
     <row r="56" spans="1:137" ht="21">
       <c r="A56" s="18" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B56" s="17">
         <v>43486</v>
@@ -9082,7 +9016,7 @@
     </row>
     <row r="57" spans="1:137" ht="21">
       <c r="A57" s="18" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B57" s="17">
         <v>43501</v>
@@ -9227,7 +9161,7 @@
     </row>
     <row r="58" spans="1:137" ht="21">
       <c r="A58" s="18" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B58" s="17">
         <v>43490</v>
@@ -9372,7 +9306,7 @@
     </row>
     <row r="59" spans="1:137" ht="21">
       <c r="A59" s="18" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B59" s="17">
         <v>43508</v>

--- a/Arbeitsdokumente/Projektplan GANTT.xlsx
+++ b/Arbeitsdokumente/Projektplan GANTT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anelljutic/Documents/GitHub/PS_InfoEng/IT_Projekt_SS19/Arbeitsdokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan Samardzic\Documents\GitHub\Phase 2 Quali\IT_Projekt_SS19\Arbeitsdokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C3A433-8221-B240-A28B-D9A8B4579D72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE25BC22-93E7-4184-ACCB-DC686F7929D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18740" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="18735" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1128,32 +1128,32 @@
   </sheetPr>
   <dimension ref="A1:EG71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="CD30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
+      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="64.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
     <col min="4" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="31" width="5.5" customWidth="1"/>
+    <col min="7" max="31" width="5.42578125" customWidth="1"/>
     <col min="32" max="34" width="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="67" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="67" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:137" ht="19">
+    <row r="1" spans="1:137" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:137" ht="19">
+    <row r="2" spans="1:137" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -1162,14 +1162,14 @@
         <v>43530</v>
       </c>
     </row>
-    <row r="3" spans="1:137" ht="19">
+    <row r="3" spans="1:137" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="22"/>
     </row>
-    <row r="4" spans="1:137" ht="20" thickBot="1">
+    <row r="4" spans="1:137" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -1267,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:137" ht="16" thickBot="1">
+    <row r="5" spans="1:137" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="6" spans="1:137" ht="21">
+    <row r="6" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>15</v>
       </c>
@@ -1825,7 +1825,7 @@
       <c r="EF6" s="9"/>
       <c r="EG6" s="9"/>
     </row>
-    <row r="7" spans="1:137" ht="21">
+    <row r="7" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>11</v>
       </c>
@@ -1970,7 +1970,7 @@
       <c r="EF7" s="9"/>
       <c r="EG7" s="9"/>
     </row>
-    <row r="8" spans="1:137" ht="21">
+    <row r="8" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -2115,7 +2115,7 @@
       <c r="EF8" s="9"/>
       <c r="EG8" s="9"/>
     </row>
-    <row r="9" spans="1:137" ht="21">
+    <row r="9" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>8</v>
       </c>
@@ -2260,7 +2260,7 @@
       <c r="EF9" s="9"/>
       <c r="EG9" s="9"/>
     </row>
-    <row r="10" spans="1:137" ht="21">
+    <row r="10" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>12</v>
       </c>
@@ -2405,7 +2405,7 @@
       <c r="EF10" s="9"/>
       <c r="EG10" s="9"/>
     </row>
-    <row r="11" spans="1:137" ht="21">
+    <row r="11" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>7</v>
       </c>
@@ -2550,7 +2550,7 @@
       <c r="EF11" s="9"/>
       <c r="EG11" s="9"/>
     </row>
-    <row r="12" spans="1:137" ht="21">
+    <row r="12" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>10</v>
       </c>
@@ -2695,7 +2695,7 @@
       <c r="EF12" s="9"/>
       <c r="EG12" s="9"/>
     </row>
-    <row r="13" spans="1:137" ht="21">
+    <row r="13" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>6</v>
       </c>
@@ -2840,7 +2840,7 @@
       <c r="EF13" s="9"/>
       <c r="EG13" s="9"/>
     </row>
-    <row r="14" spans="1:137" ht="21">
+    <row r="14" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>26</v>
       </c>
@@ -2985,7 +2985,7 @@
       <c r="EF14" s="9"/>
       <c r="EG14" s="9"/>
     </row>
-    <row r="15" spans="1:137" ht="21">
+    <row r="15" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>7</v>
       </c>
@@ -3130,7 +3130,7 @@
       <c r="EF15" s="9"/>
       <c r="EG15" s="9"/>
     </row>
-    <row r="16" spans="1:137" ht="21">
+    <row r="16" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>7</v>
       </c>
@@ -3275,7 +3275,7 @@
       <c r="EF16" s="9"/>
       <c r="EG16" s="9"/>
     </row>
-    <row r="17" spans="1:137" ht="21">
+    <row r="17" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>27</v>
       </c>
@@ -3420,7 +3420,7 @@
       <c r="EF17" s="9"/>
       <c r="EG17" s="9"/>
     </row>
-    <row r="18" spans="1:137" ht="21">
+    <row r="18" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
         <v>28</v>
       </c>
@@ -3565,7 +3565,7 @@
       <c r="EF18" s="9"/>
       <c r="EG18" s="9"/>
     </row>
-    <row r="19" spans="1:137" ht="21">
+    <row r="19" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>9</v>
       </c>
@@ -3706,7 +3706,7 @@
       <c r="EF19" s="9"/>
       <c r="EG19" s="9"/>
     </row>
-    <row r="20" spans="1:137" ht="22" thickBot="1">
+    <row r="20" spans="1:137" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="23" t="s">
         <v>13</v>
       </c>
@@ -3851,7 +3851,7 @@
       <c r="EF20" s="12"/>
       <c r="EG20" s="12"/>
     </row>
-    <row r="21" spans="1:137" ht="21">
+    <row r="21" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
         <v>6</v>
       </c>
@@ -3996,7 +3996,7 @@
       <c r="EF21" s="9"/>
       <c r="EG21" s="9"/>
     </row>
-    <row r="22" spans="1:137" ht="21">
+    <row r="22" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -4141,7 +4141,7 @@
       <c r="EF22" s="9"/>
       <c r="EG22" s="9"/>
     </row>
-    <row r="23" spans="1:137" ht="21">
+    <row r="23" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>31</v>
       </c>
@@ -4286,7 +4286,7 @@
       <c r="EF23" s="9"/>
       <c r="EG23" s="9"/>
     </row>
-    <row r="24" spans="1:137" ht="21">
+    <row r="24" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
         <v>32</v>
       </c>
@@ -4431,7 +4431,7 @@
       <c r="EF24" s="9"/>
       <c r="EG24" s="9"/>
     </row>
-    <row r="25" spans="1:137" ht="21">
+    <row r="25" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
         <v>33</v>
       </c>
@@ -4576,7 +4576,7 @@
       <c r="EF25" s="9"/>
       <c r="EG25" s="9"/>
     </row>
-    <row r="26" spans="1:137" ht="21">
+    <row r="26" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
         <v>6</v>
       </c>
@@ -4721,7 +4721,7 @@
       <c r="EF26" s="9"/>
       <c r="EG26" s="9"/>
     </row>
-    <row r="27" spans="1:137" ht="21">
+    <row r="27" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
         <v>34</v>
       </c>
@@ -4866,7 +4866,7 @@
       <c r="EF27" s="9"/>
       <c r="EG27" s="9"/>
     </row>
-    <row r="28" spans="1:137" ht="21">
+    <row r="28" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
         <v>35</v>
       </c>
@@ -5011,7 +5011,7 @@
       <c r="EF28" s="9"/>
       <c r="EG28" s="9"/>
     </row>
-    <row r="29" spans="1:137" ht="21">
+    <row r="29" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
         <v>6</v>
       </c>
@@ -5156,7 +5156,7 @@
       <c r="EF29" s="9"/>
       <c r="EG29" s="9"/>
     </row>
-    <row r="30" spans="1:137" ht="21">
+    <row r="30" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
         <v>29</v>
       </c>
@@ -5301,7 +5301,7 @@
       <c r="EF30" s="9"/>
       <c r="EG30" s="9"/>
     </row>
-    <row r="31" spans="1:137" ht="22" thickBot="1">
+    <row r="31" spans="1:137" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="23" t="s">
         <v>14</v>
       </c>
@@ -5446,7 +5446,7 @@
       <c r="EF31" s="12"/>
       <c r="EG31" s="12"/>
     </row>
-    <row r="32" spans="1:137" ht="21">
+    <row r="32" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
         <v>36</v>
       </c>
@@ -5591,7 +5591,7 @@
       <c r="EF32" s="9"/>
       <c r="EG32" s="9"/>
     </row>
-    <row r="33" spans="1:137" ht="21">
+    <row r="33" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
         <v>37</v>
       </c>
@@ -5736,7 +5736,7 @@
       <c r="EF33" s="9"/>
       <c r="EG33" s="9"/>
     </row>
-    <row r="34" spans="1:137" ht="21">
+    <row r="34" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
         <v>38</v>
       </c>
@@ -5881,7 +5881,7 @@
       <c r="EF34" s="9"/>
       <c r="EG34" s="9"/>
     </row>
-    <row r="35" spans="1:137" ht="21">
+    <row r="35" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
         <v>6</v>
       </c>
@@ -6026,7 +6026,7 @@
       <c r="EF35" s="9"/>
       <c r="EG35" s="9"/>
     </row>
-    <row r="36" spans="1:137" ht="21">
+    <row r="36" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
         <v>39</v>
       </c>
@@ -6171,7 +6171,7 @@
       <c r="EF36" s="9"/>
       <c r="EG36" s="9"/>
     </row>
-    <row r="37" spans="1:137" ht="21">
+    <row r="37" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
         <v>40</v>
       </c>
@@ -6316,7 +6316,7 @@
       <c r="EF37" s="9"/>
       <c r="EG37" s="9"/>
     </row>
-    <row r="38" spans="1:137" ht="21">
+    <row r="38" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>41</v>
       </c>
@@ -6461,7 +6461,7 @@
       <c r="EF38" s="9"/>
       <c r="EG38" s="9"/>
     </row>
-    <row r="39" spans="1:137" ht="21">
+    <row r="39" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>42</v>
       </c>
@@ -6606,7 +6606,7 @@
       <c r="EF39" s="9"/>
       <c r="EG39" s="9"/>
     </row>
-    <row r="40" spans="1:137" ht="21">
+    <row r="40" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
         <v>43</v>
       </c>
@@ -6751,7 +6751,7 @@
       <c r="EF40" s="9"/>
       <c r="EG40" s="9"/>
     </row>
-    <row r="41" spans="1:137" ht="21">
+    <row r="41" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A41" s="18"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -6887,7 +6887,7 @@
       <c r="EF41" s="9"/>
       <c r="EG41" s="9"/>
     </row>
-    <row r="42" spans="1:137" ht="21">
+    <row r="42" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A42" s="18"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -7026,7 +7026,7 @@
       <c r="EF42" s="9"/>
       <c r="EG42" s="9"/>
     </row>
-    <row r="43" spans="1:137" ht="21">
+    <row r="43" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A43" s="18"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -7165,7 +7165,7 @@
       <c r="EF43" s="9"/>
       <c r="EG43" s="9"/>
     </row>
-    <row r="44" spans="1:137" ht="21">
+    <row r="44" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A44" s="18"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -7304,7 +7304,7 @@
       <c r="EF44" s="9"/>
       <c r="EG44" s="9"/>
     </row>
-    <row r="45" spans="1:137" ht="21">
+    <row r="45" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A45" s="18"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -7443,7 +7443,7 @@
       <c r="EF45" s="9"/>
       <c r="EG45" s="9"/>
     </row>
-    <row r="46" spans="1:137" ht="21">
+    <row r="46" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A46" s="18"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -7582,7 +7582,7 @@
       <c r="EF46" s="9"/>
       <c r="EG46" s="9"/>
     </row>
-    <row r="47" spans="1:137" ht="21">
+    <row r="47" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A47" s="18"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -7721,7 +7721,7 @@
       <c r="EF47" s="9"/>
       <c r="EG47" s="9"/>
     </row>
-    <row r="48" spans="1:137" ht="21">
+    <row r="48" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A48" s="18"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -7860,7 +7860,7 @@
       <c r="EF48" s="9"/>
       <c r="EG48" s="9"/>
     </row>
-    <row r="49" spans="1:137" ht="21">
+    <row r="49" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A49" s="18"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -7999,7 +7999,7 @@
       <c r="EF49" s="9"/>
       <c r="EG49" s="9"/>
     </row>
-    <row r="50" spans="1:137" ht="22" thickBot="1">
+    <row r="50" spans="1:137" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="23" t="s">
         <v>20</v>
       </c>
@@ -8144,7 +8144,7 @@
       <c r="EF50" s="9"/>
       <c r="EG50" s="9"/>
     </row>
-    <row r="51" spans="1:137" ht="21">
+    <row r="51" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="s">
         <v>17</v>
       </c>
@@ -8289,7 +8289,7 @@
       <c r="EF51" s="9"/>
       <c r="EG51" s="9"/>
     </row>
-    <row r="52" spans="1:137" ht="44">
+    <row r="52" spans="1:137" ht="42" x14ac:dyDescent="0.35">
       <c r="A52" s="28" t="s">
         <v>23</v>
       </c>
@@ -8434,7 +8434,7 @@
       <c r="EF52" s="9"/>
       <c r="EG52" s="9"/>
     </row>
-    <row r="53" spans="1:137" ht="21">
+    <row r="53" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
         <v>16</v>
       </c>
@@ -8579,7 +8579,7 @@
       <c r="EF53" s="9"/>
       <c r="EG53" s="9"/>
     </row>
-    <row r="54" spans="1:137" ht="21">
+    <row r="54" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
         <v>18</v>
       </c>
@@ -8724,7 +8724,7 @@
       <c r="EF54" s="9"/>
       <c r="EG54" s="9"/>
     </row>
-    <row r="55" spans="1:137" ht="21">
+    <row r="55" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
         <v>18</v>
       </c>
@@ -8869,7 +8869,7 @@
       <c r="EF55" s="9"/>
       <c r="EG55" s="9"/>
     </row>
-    <row r="56" spans="1:137" ht="21">
+    <row r="56" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
         <v>19</v>
       </c>
@@ -9014,7 +9014,7 @@
       <c r="EF56" s="9"/>
       <c r="EG56" s="9"/>
     </row>
-    <row r="57" spans="1:137" ht="21">
+    <row r="57" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="s">
         <v>21</v>
       </c>
@@ -9159,7 +9159,7 @@
       <c r="EF57" s="9"/>
       <c r="EG57" s="9"/>
     </row>
-    <row r="58" spans="1:137" ht="21">
+    <row r="58" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
         <v>24</v>
       </c>
@@ -9304,7 +9304,7 @@
       <c r="EF58" s="9"/>
       <c r="EG58" s="9"/>
     </row>
-    <row r="59" spans="1:137" ht="21">
+    <row r="59" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
         <v>22</v>
       </c>
@@ -9449,7 +9449,7 @@
       <c r="EF59" s="9"/>
       <c r="EG59" s="9"/>
     </row>
-    <row r="60" spans="1:137" ht="21">
+    <row r="60" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A60" s="18"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -9588,7 +9588,7 @@
       <c r="EF60" s="9"/>
       <c r="EG60" s="9"/>
     </row>
-    <row r="61" spans="1:137" ht="21">
+    <row r="61" spans="1:137" ht="21" x14ac:dyDescent="0.35">
       <c r="A61" s="18"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
@@ -9727,7 +9727,7 @@
       <c r="EF61" s="9"/>
       <c r="EG61" s="9"/>
     </row>
-    <row r="62" spans="1:137">
+    <row r="62" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -9866,7 +9866,7 @@
       <c r="EF62" s="9"/>
       <c r="EG62" s="9"/>
     </row>
-    <row r="63" spans="1:137">
+    <row r="63" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -10005,7 +10005,7 @@
       <c r="EF63" s="9"/>
       <c r="EG63" s="9"/>
     </row>
-    <row r="64" spans="1:137">
+    <row r="64" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -10144,7 +10144,7 @@
       <c r="EF64" s="9"/>
       <c r="EG64" s="9"/>
     </row>
-    <row r="65" spans="1:137">
+    <row r="65" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -10283,7 +10283,7 @@
       <c r="EF65" s="9"/>
       <c r="EG65" s="9"/>
     </row>
-    <row r="66" spans="1:137">
+    <row r="66" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -10422,7 +10422,7 @@
       <c r="EF66" s="9"/>
       <c r="EG66" s="9"/>
     </row>
-    <row r="67" spans="1:137">
+    <row r="67" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -10561,7 +10561,7 @@
       <c r="EF67" s="9"/>
       <c r="EG67" s="9"/>
     </row>
-    <row r="68" spans="1:137">
+    <row r="68" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -10700,7 +10700,7 @@
       <c r="EF68" s="9"/>
       <c r="EG68" s="9"/>
     </row>
-    <row r="69" spans="1:137">
+    <row r="69" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -10839,7 +10839,7 @@
       <c r="EF69" s="9"/>
       <c r="EG69" s="9"/>
     </row>
-    <row r="70" spans="1:137">
+    <row r="70" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -10978,7 +10978,7 @@
       <c r="EF70" s="9"/>
       <c r="EG70" s="9"/>
     </row>
-    <row r="71" spans="1:137">
+    <row r="71" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>

--- a/Arbeitsdokumente/Projektplan GANTT.xlsx
+++ b/Arbeitsdokumente/Projektplan GANTT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan Samardzic\Documents\GitHub\Phase 2 Quali\IT_Projekt_SS19\Arbeitsdokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anelljutic/Documents/GitHub/PS_InfoEng/IT_Projekt_SS19/Arbeitsdokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE25BC22-93E7-4184-ACCB-DC686F7929D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925376CB-BBA1-A143-BE90-9220B13EB969}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="18735" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
   <si>
     <t>Projektbeginn:</t>
   </si>
@@ -75,18 +75,6 @@
     <t>PHASE 1</t>
   </si>
   <si>
-    <t>Auswertungsstrategie erstellen</t>
-  </si>
-  <si>
-    <t>Finalen Fragebogen in Microsoft Forms überleiten</t>
-  </si>
-  <si>
-    <t>Poster &amp; Management Paper erstellen</t>
-  </si>
-  <si>
-    <t>Finale Abstimmung mit Projektpartner &amp; JKU</t>
-  </si>
-  <si>
     <t>PHASE 4</t>
   </si>
   <si>
@@ -94,9 +82,6 @@
   </si>
   <si>
     <t>Abgabe der schriftlichen Projektarbeit</t>
-  </si>
-  <si>
-    <t>Interview mit Probeunternehmen leiten &amp; Feedback einarbeiten</t>
   </si>
   <si>
     <t>Finalisieren der schriftlichen Projektarbeit &amp; korrekturlesen</t>
@@ -157,6 +142,30 @@
   </si>
   <si>
     <t>Abstimmung mit Stakeholder</t>
+  </si>
+  <si>
+    <t>Seminararbeit verfassen</t>
+  </si>
+  <si>
+    <t>Vorbereitung des 3. Meilensteins</t>
+  </si>
+  <si>
+    <t>3. Meilenstein</t>
+  </si>
+  <si>
+    <t>Nachbesprechung und Aufbereitung des 3. Meilensteins</t>
+  </si>
+  <si>
+    <t>Odoo-CRM wieder neu aufsetzen</t>
+  </si>
+  <si>
+    <t>Poster erstellen</t>
+  </si>
+  <si>
+    <t>Managementpaper erstellen</t>
+  </si>
+  <si>
+    <t>Finale Abstimmung mit Projektpartner</t>
   </si>
 </sst>
 </file>
@@ -1129,31 +1138,31 @@
   <dimension ref="A1:EG71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="CD30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="CF17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomRight" activeCell="DT46" sqref="DT46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="64.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="64.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
     <col min="4" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="31" width="5.42578125" customWidth="1"/>
+    <col min="7" max="31" width="5.5" customWidth="1"/>
     <col min="32" max="34" width="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="67" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="67" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:137" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:137" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:137" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:137" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -1162,14 +1171,14 @@
         <v>43530</v>
       </c>
     </row>
-    <row r="3" spans="1:137" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:137" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="22"/>
     </row>
-    <row r="4" spans="1:137" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:137" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -1267,7 +1276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:137" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:137" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1680,7 +1689,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="6" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>15</v>
       </c>
@@ -1825,7 +1834,7 @@
       <c r="EF6" s="9"/>
       <c r="EG6" s="9"/>
     </row>
-    <row r="7" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>11</v>
       </c>
@@ -1970,7 +1979,7 @@
       <c r="EF7" s="9"/>
       <c r="EG7" s="9"/>
     </row>
-    <row r="8" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -2115,7 +2124,7 @@
       <c r="EF8" s="9"/>
       <c r="EG8" s="9"/>
     </row>
-    <row r="9" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>8</v>
       </c>
@@ -2260,7 +2269,7 @@
       <c r="EF9" s="9"/>
       <c r="EG9" s="9"/>
     </row>
-    <row r="10" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>12</v>
       </c>
@@ -2405,7 +2414,7 @@
       <c r="EF10" s="9"/>
       <c r="EG10" s="9"/>
     </row>
-    <row r="11" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>7</v>
       </c>
@@ -2550,7 +2559,7 @@
       <c r="EF11" s="9"/>
       <c r="EG11" s="9"/>
     </row>
-    <row r="12" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>10</v>
       </c>
@@ -2695,7 +2704,7 @@
       <c r="EF12" s="9"/>
       <c r="EG12" s="9"/>
     </row>
-    <row r="13" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>6</v>
       </c>
@@ -2840,9 +2849,9 @@
       <c r="EF13" s="9"/>
       <c r="EG13" s="9"/>
     </row>
-    <row r="14" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B14" s="17">
         <v>43544</v>
@@ -2985,7 +2994,7 @@
       <c r="EF14" s="9"/>
       <c r="EG14" s="9"/>
     </row>
-    <row r="15" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>7</v>
       </c>
@@ -3130,7 +3139,7 @@
       <c r="EF15" s="9"/>
       <c r="EG15" s="9"/>
     </row>
-    <row r="16" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>7</v>
       </c>
@@ -3275,9 +3284,9 @@
       <c r="EF16" s="9"/>
       <c r="EG16" s="9"/>
     </row>
-    <row r="17" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B17" s="17">
         <v>43557</v>
@@ -3420,9 +3429,9 @@
       <c r="EF17" s="9"/>
       <c r="EG17" s="9"/>
     </row>
-    <row r="18" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B18" s="17">
         <v>43558</v>
@@ -3565,7 +3574,7 @@
       <c r="EF18" s="9"/>
       <c r="EG18" s="9"/>
     </row>
-    <row r="19" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>9</v>
       </c>
@@ -3706,7 +3715,7 @@
       <c r="EF19" s="9"/>
       <c r="EG19" s="9"/>
     </row>
-    <row r="20" spans="1:137" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:137" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>13</v>
       </c>
@@ -3851,7 +3860,7 @@
       <c r="EF20" s="12"/>
       <c r="EG20" s="12"/>
     </row>
-    <row r="21" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>6</v>
       </c>
@@ -3996,9 +4005,9 @@
       <c r="EF21" s="9"/>
       <c r="EG21" s="9"/>
     </row>
-    <row r="22" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B22" s="17">
         <v>43565</v>
@@ -4141,9 +4150,9 @@
       <c r="EF22" s="9"/>
       <c r="EG22" s="9"/>
     </row>
-    <row r="23" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B23" s="17">
         <v>43563</v>
@@ -4286,9 +4295,9 @@
       <c r="EF23" s="9"/>
       <c r="EG23" s="9"/>
     </row>
-    <row r="24" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B24" s="17">
         <v>43578</v>
@@ -4431,9 +4440,9 @@
       <c r="EF24" s="9"/>
       <c r="EG24" s="9"/>
     </row>
-    <row r="25" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B25" s="17">
         <v>43585</v>
@@ -4576,7 +4585,7 @@
       <c r="EF25" s="9"/>
       <c r="EG25" s="9"/>
     </row>
-    <row r="26" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>6</v>
       </c>
@@ -4721,9 +4730,9 @@
       <c r="EF26" s="9"/>
       <c r="EG26" s="9"/>
     </row>
-    <row r="27" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B27" s="17">
         <v>43587</v>
@@ -4866,9 +4875,9 @@
       <c r="EF27" s="9"/>
       <c r="EG27" s="9"/>
     </row>
-    <row r="28" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B28" s="17">
         <v>43588</v>
@@ -5011,7 +5020,7 @@
       <c r="EF28" s="9"/>
       <c r="EG28" s="9"/>
     </row>
-    <row r="29" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>6</v>
       </c>
@@ -5156,9 +5165,9 @@
       <c r="EF29" s="9"/>
       <c r="EG29" s="9"/>
     </row>
-    <row r="30" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B30" s="17">
         <v>43593</v>
@@ -5301,7 +5310,7 @@
       <c r="EF30" s="9"/>
       <c r="EG30" s="9"/>
     </row>
-    <row r="31" spans="1:137" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:137" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
         <v>14</v>
       </c>
@@ -5446,9 +5455,9 @@
       <c r="EF31" s="12"/>
       <c r="EG31" s="12"/>
     </row>
-    <row r="32" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B32" s="17">
         <v>43595</v>
@@ -5591,9 +5600,9 @@
       <c r="EF32" s="9"/>
       <c r="EG32" s="9"/>
     </row>
-    <row r="33" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B33" s="27">
         <v>43596</v>
@@ -5736,9 +5745,9 @@
       <c r="EF33" s="9"/>
       <c r="EG33" s="9"/>
     </row>
-    <row r="34" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B34" s="17">
         <v>43605</v>
@@ -5881,7 +5890,7 @@
       <c r="EF34" s="9"/>
       <c r="EG34" s="9"/>
     </row>
-    <row r="35" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>6</v>
       </c>
@@ -6026,9 +6035,9 @@
       <c r="EF35" s="9"/>
       <c r="EG35" s="9"/>
     </row>
-    <row r="36" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B36" s="17">
         <v>43608</v>
@@ -6171,9 +6180,9 @@
       <c r="EF36" s="9"/>
       <c r="EG36" s="9"/>
     </row>
-    <row r="37" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B37" s="17">
         <v>43609</v>
@@ -6316,9 +6325,9 @@
       <c r="EF37" s="9"/>
       <c r="EG37" s="9"/>
     </row>
-    <row r="38" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B38" s="17">
         <v>43593</v>
@@ -6461,9 +6470,9 @@
       <c r="EF38" s="9"/>
       <c r="EG38" s="9"/>
     </row>
-    <row r="39" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B39" s="17">
         <v>43609</v>
@@ -6606,9 +6615,9 @@
       <c r="EF39" s="9"/>
       <c r="EG39" s="9"/>
     </row>
-    <row r="40" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B40" s="17">
         <v>43609</v>
@@ -6751,10 +6760,16 @@
       <c r="EF40" s="9"/>
       <c r="EG40" s="9"/>
     </row>
-    <row r="41" spans="1:137" ht="21" x14ac:dyDescent="0.35">
-      <c r="A41" s="18"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
+    <row r="41" spans="1:137" ht="21" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="17">
+        <v>43612</v>
+      </c>
+      <c r="C41" s="17">
+        <v>43612</v>
+      </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
@@ -6887,10 +6902,16 @@
       <c r="EF41" s="9"/>
       <c r="EG41" s="9"/>
     </row>
-    <row r="42" spans="1:137" ht="21" x14ac:dyDescent="0.35">
-      <c r="A42" s="18"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
+    <row r="42" spans="1:137" ht="21" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="17">
+        <v>43614</v>
+      </c>
+      <c r="C42" s="17">
+        <v>43614</v>
+      </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
@@ -7026,10 +7047,16 @@
       <c r="EF42" s="9"/>
       <c r="EG42" s="9"/>
     </row>
-    <row r="43" spans="1:137" ht="21" x14ac:dyDescent="0.35">
-      <c r="A43" s="18"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
+    <row r="43" spans="1:137" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="17">
+        <v>43595</v>
+      </c>
+      <c r="C43" s="17">
+        <v>43635</v>
+      </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
@@ -7165,10 +7192,16 @@
       <c r="EF43" s="9"/>
       <c r="EG43" s="9"/>
     </row>
-    <row r="44" spans="1:137" ht="21" x14ac:dyDescent="0.35">
-      <c r="A44" s="18"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
+    <row r="44" spans="1:137" ht="21" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="17">
+        <v>43620</v>
+      </c>
+      <c r="C44" s="17">
+        <v>43620</v>
+      </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
@@ -7304,10 +7337,16 @@
       <c r="EF44" s="9"/>
       <c r="EG44" s="9"/>
     </row>
-    <row r="45" spans="1:137" ht="21" x14ac:dyDescent="0.35">
-      <c r="A45" s="18"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
+    <row r="45" spans="1:137" ht="21" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="17">
+        <v>43626</v>
+      </c>
+      <c r="C45" s="17">
+        <v>43626</v>
+      </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -7443,10 +7482,16 @@
       <c r="EF45" s="9"/>
       <c r="EG45" s="9"/>
     </row>
-    <row r="46" spans="1:137" ht="21" x14ac:dyDescent="0.35">
-      <c r="A46" s="18"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
+    <row r="46" spans="1:137" ht="21" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="17">
+        <v>43629</v>
+      </c>
+      <c r="C46" s="17">
+        <v>43629</v>
+      </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
@@ -7582,10 +7627,16 @@
       <c r="EF46" s="9"/>
       <c r="EG46" s="9"/>
     </row>
-    <row r="47" spans="1:137" ht="21" x14ac:dyDescent="0.35">
-      <c r="A47" s="18"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
+    <row r="47" spans="1:137" ht="21" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="17">
+        <v>43634</v>
+      </c>
+      <c r="C47" s="17">
+        <v>43634</v>
+      </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
@@ -7721,10 +7772,16 @@
       <c r="EF47" s="9"/>
       <c r="EG47" s="9"/>
     </row>
-    <row r="48" spans="1:137" ht="21" x14ac:dyDescent="0.35">
-      <c r="A48" s="18"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
+    <row r="48" spans="1:137" ht="21" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="17">
+        <v>43633</v>
+      </c>
+      <c r="C48" s="17">
+        <v>43635</v>
+      </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -7860,8 +7917,10 @@
       <c r="EF48" s="9"/>
       <c r="EG48" s="9"/>
     </row>
-    <row r="49" spans="1:137" ht="21" x14ac:dyDescent="0.35">
-      <c r="A49" s="18"/>
+    <row r="49" spans="1:137" ht="21" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="9"/>
@@ -7999,15 +8058,15 @@
       <c r="EF49" s="9"/>
       <c r="EG49" s="9"/>
     </row>
-    <row r="50" spans="1:137" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:137" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B50" s="24">
-        <v>43482</v>
+        <v>43635</v>
       </c>
       <c r="C50" s="25">
-        <v>43500</v>
+        <v>43649</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
@@ -8144,15 +8203,15 @@
       <c r="EF50" s="9"/>
       <c r="EG50" s="9"/>
     </row>
-    <row r="51" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B51" s="17">
-        <v>43481</v>
+        <v>43635</v>
       </c>
       <c r="C51" s="17">
-        <v>43482</v>
+        <v>43635</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -8289,15 +8348,15 @@
       <c r="EF51" s="9"/>
       <c r="EG51" s="9"/>
     </row>
-    <row r="52" spans="1:137" ht="42" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:137" ht="22" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B52" s="17">
-        <v>43482</v>
+        <v>43637</v>
       </c>
       <c r="C52" s="17">
-        <v>43496</v>
+        <v>43637</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
@@ -8434,15 +8493,15 @@
       <c r="EF52" s="9"/>
       <c r="EG52" s="9"/>
     </row>
-    <row r="53" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B53" s="17">
-        <v>43490</v>
+        <v>43640</v>
       </c>
       <c r="C53" s="17">
-        <v>43496</v>
+        <v>43647</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
@@ -8579,15 +8638,15 @@
       <c r="EF53" s="9"/>
       <c r="EG53" s="9"/>
     </row>
-    <row r="54" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B54" s="17">
-        <v>43486</v>
+        <v>43640</v>
       </c>
       <c r="C54" s="17">
-        <v>43500</v>
+        <v>43649</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
@@ -8724,15 +8783,15 @@
       <c r="EF54" s="9"/>
       <c r="EG54" s="9"/>
     </row>
-    <row r="55" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B55" s="17">
-        <v>43500</v>
+        <v>43635</v>
       </c>
       <c r="C55" s="17">
-        <v>43507</v>
+        <v>43649</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
@@ -8869,15 +8928,15 @@
       <c r="EF55" s="9"/>
       <c r="EG55" s="9"/>
     </row>
-    <row r="56" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B56" s="17">
-        <v>43486</v>
+        <v>43635</v>
       </c>
       <c r="C56" s="17">
-        <v>43501</v>
+        <v>43648</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
@@ -9014,15 +9073,15 @@
       <c r="EF56" s="9"/>
       <c r="EG56" s="9"/>
     </row>
-    <row r="57" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B57" s="17">
-        <v>43501</v>
+        <v>43641</v>
       </c>
       <c r="C57" s="17">
-        <v>43508</v>
+        <v>43648</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
@@ -9159,15 +9218,15 @@
       <c r="EF57" s="9"/>
       <c r="EG57" s="9"/>
     </row>
-    <row r="58" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B58" s="17">
-        <v>43490</v>
+        <v>43615</v>
       </c>
       <c r="C58" s="17">
-        <v>43508</v>
+        <v>43649</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
@@ -9304,15 +9363,15 @@
       <c r="EF58" s="9"/>
       <c r="EG58" s="9"/>
     </row>
-    <row r="59" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B59" s="17">
-        <v>43508</v>
+        <v>43649</v>
       </c>
       <c r="C59" s="17">
-        <v>43508</v>
+        <v>43649</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
@@ -9449,7 +9508,7 @@
       <c r="EF59" s="9"/>
       <c r="EG59" s="9"/>
     </row>
-    <row r="60" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -9588,7 +9647,7 @@
       <c r="EF60" s="9"/>
       <c r="EG60" s="9"/>
     </row>
-    <row r="61" spans="1:137" ht="21" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:137" ht="21" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
@@ -9727,7 +9786,7 @@
       <c r="EF61" s="9"/>
       <c r="EG61" s="9"/>
     </row>
-    <row r="62" spans="1:137" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -9866,7 +9925,7 @@
       <c r="EF62" s="9"/>
       <c r="EG62" s="9"/>
     </row>
-    <row r="63" spans="1:137" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -10005,7 +10064,7 @@
       <c r="EF63" s="9"/>
       <c r="EG63" s="9"/>
     </row>
-    <row r="64" spans="1:137" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -10144,7 +10203,7 @@
       <c r="EF64" s="9"/>
       <c r="EG64" s="9"/>
     </row>
-    <row r="65" spans="1:137" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -10283,7 +10342,7 @@
       <c r="EF65" s="9"/>
       <c r="EG65" s="9"/>
     </row>
-    <row r="66" spans="1:137" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -10422,7 +10481,7 @@
       <c r="EF66" s="9"/>
       <c r="EG66" s="9"/>
     </row>
-    <row r="67" spans="1:137" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -10561,7 +10620,7 @@
       <c r="EF67" s="9"/>
       <c r="EG67" s="9"/>
     </row>
-    <row r="68" spans="1:137" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -10700,7 +10759,7 @@
       <c r="EF68" s="9"/>
       <c r="EG68" s="9"/>
     </row>
-    <row r="69" spans="1:137" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -10839,7 +10898,7 @@
       <c r="EF69" s="9"/>
       <c r="EG69" s="9"/>
     </row>
-    <row r="70" spans="1:137" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -10978,7 +11037,7 @@
       <c r="EF70" s="9"/>
       <c r="EG70" s="9"/>
     </row>
-    <row r="71" spans="1:137" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
